--- a/all season cleaned data/batsamset_ipl.xlsx
+++ b/all season cleaned data/batsamset_ipl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned all season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/all season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B791C39-02D3-B04F-9D2F-FEC6BFCABCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107172EF-E153-8B41-B686-31E8A793C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
   <si>
     <t>Player</t>
   </si>
@@ -76,60 +76,36 @@
     <t>2008-2024</t>
   </si>
   <si>
-    <t>113*</t>
-  </si>
-  <si>
     <t>BAT</t>
   </si>
   <si>
     <t>S Dhawan</t>
   </si>
   <si>
-    <t>106*</t>
-  </si>
-  <si>
     <t>RG Sharma</t>
   </si>
   <si>
-    <t>109*</t>
-  </si>
-  <si>
     <t>DA Warner</t>
   </si>
   <si>
     <t>2009-2024</t>
   </si>
   <si>
-    <t>100*</t>
-  </si>
-  <si>
     <t>MS Dhoni</t>
   </si>
   <si>
-    <t>84*</t>
-  </si>
-  <si>
     <t>KD Karthik</t>
   </si>
   <si>
-    <t>97*</t>
-  </si>
-  <si>
     <t>KL Rahul</t>
   </si>
   <si>
     <t>2013-2024</t>
   </si>
   <si>
-    <t>132*</t>
-  </si>
-  <si>
     <t>AM Rahane</t>
   </si>
   <si>
-    <t>105*</t>
-  </si>
-  <si>
     <t>F du Plessis</t>
   </si>
   <si>
@@ -142,15 +118,9 @@
     <t>MK Pandey</t>
   </si>
   <si>
-    <t>114*</t>
-  </si>
-  <si>
     <t>SA Yadav</t>
   </si>
   <si>
-    <t>103*</t>
-  </si>
-  <si>
     <t>JC Buttler</t>
   </si>
   <si>
@@ -160,9 +130,6 @@
     <t>RR Pant</t>
   </si>
   <si>
-    <t>128*</t>
-  </si>
-  <si>
     <t>Shubman Gill</t>
   </si>
   <si>
@@ -172,9 +139,6 @@
     <t>Q de Kock</t>
   </si>
   <si>
-    <t>140*</t>
-  </si>
-  <si>
     <t>SS Iyer</t>
   </si>
   <si>
@@ -184,15 +148,9 @@
     <t>WP Saha</t>
   </si>
   <si>
-    <t>115*</t>
-  </si>
-  <si>
     <t>DA Miller</t>
   </si>
   <si>
-    <t>101*</t>
-  </si>
-  <si>
     <t>MA Agarwal</t>
   </si>
   <si>
@@ -202,18 +160,12 @@
     <t>Ishan Kishan</t>
   </si>
   <si>
-    <t>89*</t>
-  </si>
-  <si>
     <t>RD Gaikwad</t>
   </si>
   <si>
     <t>2020-2024</t>
   </si>
   <si>
-    <t>108*</t>
-  </si>
-  <si>
     <t>RA Tripathi</t>
   </si>
   <si>
@@ -223,9 +175,6 @@
     <t>KS Williamson</t>
   </si>
   <si>
-    <t>78*</t>
-  </si>
-  <si>
     <t>PP Shaw</t>
   </si>
   <si>
@@ -244,12 +193,6 @@
     <t>D Padikkal</t>
   </si>
   <si>
-    <t>71*</t>
-  </si>
-  <si>
-    <t>68*</t>
-  </si>
-  <si>
     <t>2021-2024</t>
   </si>
   <si>
@@ -277,30 +220,18 @@
     <t>2017-2023</t>
   </si>
   <si>
-    <t>107*</t>
-  </si>
-  <si>
     <t>DP Conway</t>
   </si>
   <si>
     <t>2022-2023</t>
   </si>
   <si>
-    <t>92*</t>
-  </si>
-  <si>
     <t>RK Singh</t>
   </si>
   <si>
-    <t>67*</t>
-  </si>
-  <si>
     <t>RM Patidar</t>
   </si>
   <si>
-    <t>112*</t>
-  </si>
-  <si>
     <t>TM Head</t>
   </si>
   <si>
@@ -310,9 +241,6 @@
     <t>JM Sharma</t>
   </si>
   <si>
-    <t>49*</t>
-  </si>
-  <si>
     <t>C Green</t>
   </si>
   <si>
@@ -331,15 +259,9 @@
     <t>PD Salt</t>
   </si>
   <si>
-    <t>82*</t>
-  </si>
-  <si>
     <t>JJ Roy</t>
   </si>
   <si>
-    <t>91*</t>
-  </si>
-  <si>
     <t>2015-2023</t>
   </si>
   <si>
@@ -367,18 +289,12 @@
     <t>R Powell</t>
   </si>
   <si>
-    <t>39*</t>
-  </si>
-  <si>
     <t>N Wadhera</t>
   </si>
   <si>
     <t>DC Jurel</t>
   </si>
   <si>
-    <t>56*</t>
-  </si>
-  <si>
     <t>J Fraser-McGurk</t>
   </si>
   <si>
@@ -400,12 +316,6 @@
     <t>2020-2023</t>
   </si>
   <si>
-    <t>51*</t>
-  </si>
-  <si>
-    <t>47*</t>
-  </si>
-  <si>
     <t>A Taide</t>
   </si>
   <si>
@@ -448,18 +358,12 @@
     <t>Harpreet Singh</t>
   </si>
   <si>
-    <t>14*</t>
-  </si>
-  <si>
     <t>SE Rutherford</t>
   </si>
   <si>
     <t>2019-2022</t>
   </si>
   <si>
-    <t>28*</t>
-  </si>
-  <si>
     <t>2021-2023</t>
   </si>
   <si>
@@ -478,18 +382,12 @@
     <t>GD Phillips</t>
   </si>
   <si>
-    <t>10*</t>
-  </si>
-  <si>
     <t>Vishnu Vinod</t>
   </si>
   <si>
     <t>DJ Willey</t>
   </si>
   <si>
-    <t>20*</t>
-  </si>
-  <si>
     <t>2022-2022</t>
   </si>
   <si>
@@ -497,9 +395,6 @@
   </si>
   <si>
     <t>SB Dubey</t>
-  </si>
-  <si>
-    <t>12*</t>
   </si>
   <si>
     <t>AT Carey</t>
@@ -928,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -990,10 +885,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>9</v>
@@ -1035,15 +930,15 @@
         <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -1085,15 +980,15 @@
         <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1135,15 +1030,15 @@
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1185,15 +1080,15 @@
         <v>1</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -1235,15 +1130,15 @@
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1285,15 +1180,15 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1335,15 +1230,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1385,15 +1280,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1435,15 +1330,15 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2">
         <v>21</v>
@@ -1457,8 +1352,8 @@
       <c r="F11" s="2">
         <v>653</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>60</v>
+      <c r="G11" s="2">
+        <v>89</v>
       </c>
       <c r="H11" s="2">
         <v>34.36</v>
@@ -1485,15 +1380,15 @@
         <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -1535,15 +1430,15 @@
         <v>15</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1585,15 +1480,15 @@
         <v>18</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2">
         <v>28</v>
@@ -1607,8 +1502,8 @@
       <c r="F14" s="2">
         <v>347</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>118</v>
+      <c r="G14" s="2">
+        <v>56</v>
       </c>
       <c r="H14" s="2">
         <v>23.13</v>
@@ -1635,15 +1530,15 @@
         <v>16</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -1685,15 +1580,15 @@
         <v>19</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -1735,15 +1630,15 @@
         <v>8</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2">
         <v>29</v>
@@ -1757,8 +1652,8 @@
       <c r="F17" s="2">
         <v>707</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
+      <c r="G17" s="2">
+        <v>100</v>
       </c>
       <c r="H17" s="2">
         <v>41.58</v>
@@ -1788,10 +1683,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
@@ -1805,8 +1700,8 @@
       <c r="F18" s="2">
         <v>190</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
+      <c r="G18" s="2">
+        <v>100</v>
       </c>
       <c r="H18" s="2">
         <v>21.11</v>
@@ -1833,15 +1728,15 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -1883,15 +1778,15 @@
         <v>0</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -1936,10 +1831,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1984,10 +1879,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2">
         <v>40</v>
@@ -2001,8 +1896,8 @@
       <c r="F22" s="2">
         <v>730</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>96</v>
+      <c r="G22" s="2">
+        <v>49</v>
       </c>
       <c r="H22" s="2">
         <v>22.81</v>
@@ -2029,15 +1924,15 @@
         <v>45</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2">
         <v>18</v>
@@ -2051,8 +1946,8 @@
       <c r="F23" s="2">
         <v>405</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
+      <c r="G23" s="2">
+        <v>71</v>
       </c>
       <c r="H23" s="2">
         <v>36.81</v>
@@ -2079,15 +1974,15 @@
         <v>26</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2">
         <v>27</v>
@@ -2101,8 +1996,8 @@
       <c r="F24" s="2">
         <v>360</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>90</v>
+      <c r="G24" s="2">
+        <v>67</v>
       </c>
       <c r="H24" s="2">
         <v>18.940000000000001</v>
@@ -2129,15 +2024,15 @@
         <v>28</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2">
         <v>19</v>
@@ -2179,15 +2074,15 @@
         <v>10</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
@@ -2229,15 +2124,15 @@
         <v>16</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2">
         <v>23</v>
@@ -2251,8 +2146,8 @@
       <c r="F27" s="2">
         <v>924</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>88</v>
+      <c r="G27" s="2">
+        <v>92</v>
       </c>
       <c r="H27" s="2">
         <v>48.63</v>
@@ -2279,15 +2174,15 @@
         <v>30</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>13</v>
@@ -2329,15 +2224,15 @@
         <v>15</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -2382,10 +2277,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -2399,8 +2294,8 @@
       <c r="F30" s="2">
         <v>22</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>159</v>
+      <c r="G30" s="2">
+        <v>12</v>
       </c>
       <c r="H30" s="2">
         <v>11</v>
@@ -2427,15 +2322,15 @@
         <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
@@ -2477,15 +2372,15 @@
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2527,15 +2422,15 @@
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2">
         <v>44</v>
@@ -2549,8 +2444,8 @@
       <c r="F33" s="2">
         <v>995</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>75</v>
+      <c r="G33" s="2">
+        <v>68</v>
       </c>
       <c r="H33" s="2">
         <v>30.15</v>
@@ -2577,15 +2472,15 @@
         <v>35</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2">
         <v>27</v>
@@ -2599,8 +2494,8 @@
       <c r="F34" s="2">
         <v>799</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>92</v>
+      <c r="G34" s="2">
+        <v>112</v>
       </c>
       <c r="H34" s="2">
         <v>34.729999999999997</v>
@@ -2627,15 +2522,15 @@
         <v>54</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2">
         <v>24</v>
@@ -2677,15 +2572,15 @@
         <v>14</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
@@ -2727,15 +2622,15 @@
         <v>3</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -2777,15 +2672,15 @@
         <v>6</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2">
         <v>26</v>
@@ -2830,10 +2725,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2">
         <v>10</v>
@@ -2847,8 +2742,8 @@
       <c r="F39" s="2">
         <v>199</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>67</v>
+      <c r="G39" s="2">
+        <v>78</v>
       </c>
       <c r="H39" s="2">
         <v>28.42</v>
@@ -2875,15 +2770,15 @@
         <v>8</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -2925,15 +2820,15 @@
         <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
@@ -2975,15 +2870,15 @@
         <v>0</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2">
         <v>66</v>
@@ -2997,8 +2892,8 @@
       <c r="F42" s="2">
         <v>2380</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>63</v>
+      <c r="G42" s="2">
+        <v>108</v>
       </c>
       <c r="H42" s="2">
         <v>41.75</v>
@@ -3025,15 +2920,15 @@
         <v>91</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
         <v>64</v>
@@ -3047,8 +2942,8 @@
       <c r="F43" s="2">
         <v>1559</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>56</v>
+      <c r="G43" s="2">
+        <v>101</v>
       </c>
       <c r="H43" s="2">
         <v>25.14</v>
@@ -3075,15 +2970,15 @@
         <v>42</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2">
         <v>23</v>
@@ -3097,8 +2992,8 @@
       <c r="F44" s="2">
         <v>273</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>126</v>
+      <c r="G44" s="2">
+        <v>51</v>
       </c>
       <c r="H44" s="2">
         <v>15.16</v>
@@ -3125,15 +3020,15 @@
         <v>9</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2">
         <v>13</v>
@@ -3147,8 +3042,8 @@
       <c r="F45" s="2">
         <v>162</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>115</v>
+      <c r="G45" s="2">
+        <v>39</v>
       </c>
       <c r="H45" s="2">
         <v>18</v>
@@ -3175,15 +3070,15 @@
         <v>2</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -3225,15 +3120,15 @@
         <v>1</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
@@ -3247,8 +3142,8 @@
       <c r="F47" s="2">
         <v>32</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>142</v>
+      <c r="G47" s="2">
+        <v>14</v>
       </c>
       <c r="H47" s="2">
         <v>16</v>
@@ -3275,15 +3170,15 @@
         <v>1</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
@@ -3325,15 +3220,15 @@
         <v>1</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2">
         <v>76</v>
@@ -3375,15 +3270,15 @@
         <v>127</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2">
         <v>50</v>
@@ -3425,15 +3320,15 @@
         <v>69</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <v>72</v>
@@ -3475,15 +3370,15 @@
         <v>82</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2">
         <v>34</v>
@@ -3525,15 +3420,15 @@
         <v>41</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2">
         <v>6</v>
@@ -3575,15 +3470,15 @@
         <v>2</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -3597,8 +3492,8 @@
       <c r="F54" s="2">
         <v>106</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>145</v>
+      <c r="G54" s="2">
+        <v>28</v>
       </c>
       <c r="H54" s="2">
         <v>15.14</v>
@@ -3625,15 +3520,15 @@
         <v>8</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -3675,15 +3570,15 @@
         <v>0</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2">
         <v>103</v>
@@ -3725,15 +3620,15 @@
         <v>95</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2">
         <v>79</v>
@@ -3775,15 +3670,15 @@
         <v>61</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2">
         <v>35</v>
@@ -3825,15 +3720,15 @@
         <v>64</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2">
         <v>46</v>
@@ -3847,8 +3742,8 @@
       <c r="F59" s="2">
         <v>893</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>90</v>
+      <c r="G59" s="2">
+        <v>67</v>
       </c>
       <c r="H59" s="2">
         <v>30.79</v>
@@ -3875,15 +3770,15 @@
         <v>46</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
@@ -3925,15 +3820,15 @@
         <v>0</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2">
         <v>11</v>
@@ -3947,8 +3842,8 @@
       <c r="F61" s="2">
         <v>53</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>155</v>
+      <c r="G61" s="2">
+        <v>20</v>
       </c>
       <c r="H61" s="2">
         <v>26.5</v>
@@ -3978,10 +3873,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
@@ -3995,8 +3890,8 @@
       <c r="F62" s="2">
         <v>12</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>152</v>
+      <c r="G62" s="2">
+        <v>10</v>
       </c>
       <c r="H62" s="2">
         <v>6</v>
@@ -4026,10 +3921,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2">
         <v>27</v>
@@ -4071,15 +3966,15 @@
         <v>36</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2">
         <v>95</v>
@@ -4121,15 +4016,15 @@
         <v>84</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2">
         <v>6</v>
@@ -4171,15 +4066,15 @@
         <v>3</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2">
         <v>45</v>
@@ -4193,8 +4088,8 @@
       <c r="F66" s="2">
         <v>935</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>85</v>
+      <c r="G66" s="2">
+        <v>107</v>
       </c>
       <c r="H66" s="2">
         <v>24.6</v>
@@ -4224,10 +4119,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2">
         <v>21</v>
@@ -4241,8 +4136,8 @@
       <c r="F67" s="2">
         <v>614</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>105</v>
+      <c r="G67" s="2">
+        <v>91</v>
       </c>
       <c r="H67" s="2">
         <v>32.31</v>
@@ -4272,10 +4167,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2">
         <v>107</v>
@@ -4317,15 +4212,15 @@
         <v>161</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2">
         <v>111</v>
@@ -4339,8 +4234,8 @@
       <c r="F69" s="2">
         <v>3284</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>46</v>
+      <c r="G69" s="2">
+        <v>128</v>
       </c>
       <c r="H69" s="2">
         <v>35.31</v>
@@ -4367,15 +4262,15 @@
         <v>154</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C70" s="2">
         <v>105</v>
@@ -4417,15 +4312,15 @@
         <v>119</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C71" s="2">
         <v>25</v>
@@ -4467,15 +4362,15 @@
         <v>40</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C72" s="2">
         <v>30</v>
@@ -4517,15 +4412,15 @@
         <v>20</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2">
         <v>116</v>
@@ -4567,15 +4462,15 @@
         <v>113</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2">
         <v>79</v>
@@ -4617,15 +4512,15 @@
         <v>64</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C75" s="2">
         <v>18</v>
@@ -4639,8 +4534,8 @@
       <c r="F75" s="2">
         <v>148</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>127</v>
+      <c r="G75" s="2">
+        <v>47</v>
       </c>
       <c r="H75" s="2">
         <v>29.6</v>
@@ -4670,10 +4565,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2">
         <v>22</v>
@@ -4687,8 +4582,8 @@
       <c r="F76" s="2">
         <v>473</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>103</v>
+      <c r="G76" s="2">
+        <v>82</v>
       </c>
       <c r="H76" s="2">
         <v>23.65</v>
@@ -4715,15 +4610,15 @@
         <v>25</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2">
         <v>132</v>
@@ -4737,8 +4632,8 @@
       <c r="F77" s="2">
         <v>4683</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>33</v>
+      <c r="G77" s="2">
+        <v>132</v>
       </c>
       <c r="H77" s="2">
         <v>45.46</v>
@@ -4765,15 +4660,15 @@
         <v>187</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C78" s="2">
         <v>168</v>
@@ -4815,15 +4710,15 @@
         <v>206</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C79" s="2">
         <v>107</v>
@@ -4837,8 +4732,8 @@
       <c r="F79" s="2">
         <v>3157</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>50</v>
+      <c r="G79" s="2">
+        <v>140</v>
       </c>
       <c r="H79" s="2">
         <v>31.25</v>
@@ -4865,15 +4760,15 @@
         <v>123</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2">
         <v>56</v>
@@ -4915,15 +4810,15 @@
         <v>43</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C81" s="2">
         <v>145</v>
@@ -4965,15 +4860,15 @@
         <v>166</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C82" s="2">
         <v>150</v>
@@ -4987,8 +4882,8 @@
       <c r="F82" s="2">
         <v>3594</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>42</v>
+      <c r="G82" s="2">
+        <v>103</v>
       </c>
       <c r="H82" s="2">
         <v>32.08</v>
@@ -5015,15 +4910,15 @@
         <v>130</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2">
         <v>130</v>
@@ -5037,8 +4932,8 @@
       <c r="F83" s="2">
         <v>2924</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>56</v>
+      <c r="G83" s="2">
+        <v>101</v>
       </c>
       <c r="H83" s="2">
         <v>36.090000000000003</v>
@@ -5065,15 +4960,15 @@
         <v>134</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2">
         <v>127</v>
@@ -5115,15 +5010,15 @@
         <v>98</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C85" s="2">
         <v>15</v>
@@ -5168,10 +5063,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2">
         <v>9</v>
@@ -5216,10 +5111,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2">
         <v>184</v>
@@ -5261,7 +5156,7 @@
         <v>236</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -5283,8 +5178,8 @@
       <c r="F88" s="2">
         <v>8004</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>18</v>
+      <c r="G88" s="2">
+        <v>113</v>
       </c>
       <c r="H88" s="2">
         <v>38.659999999999997</v>
@@ -5311,12 +5206,12 @@
         <v>272</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>17</v>
@@ -5333,8 +5228,8 @@
       <c r="F89" s="2">
         <v>6628</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>23</v>
+      <c r="G89" s="2">
+        <v>109</v>
       </c>
       <c r="H89" s="2">
         <v>29.72</v>
@@ -5361,12 +5256,12 @@
         <v>280</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>17</v>
@@ -5383,8 +5278,8 @@
       <c r="F90" s="2">
         <v>5243</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>28</v>
+      <c r="G90" s="2">
+        <v>84</v>
       </c>
       <c r="H90" s="2">
         <v>39.119999999999997</v>
@@ -5411,12 +5306,12 @@
         <v>252</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>17</v>
@@ -5433,8 +5328,8 @@
       <c r="F91" s="2">
         <v>4642</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>35</v>
+      <c r="G91" s="2">
+        <v>105</v>
       </c>
       <c r="H91" s="2">
         <v>30.14</v>
@@ -5461,12 +5356,12 @@
         <v>103</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>17</v>
@@ -5483,8 +5378,8 @@
       <c r="F92" s="2">
         <v>3850</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>40</v>
+      <c r="G92" s="2">
+        <v>114</v>
       </c>
       <c r="H92" s="2">
         <v>29.16</v>
@@ -5511,12 +5406,12 @@
         <v>110</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>17</v>
@@ -5533,8 +5428,8 @@
       <c r="F93" s="2">
         <v>6769</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>21</v>
+      <c r="G93" s="2">
+        <v>106</v>
       </c>
       <c r="H93" s="2">
         <v>35.25</v>
@@ -5564,7 +5459,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>17</v>
@@ -5581,8 +5476,8 @@
       <c r="F94" s="2">
         <v>4842</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>30</v>
+      <c r="G94" s="2">
+        <v>97</v>
       </c>
       <c r="H94" s="2">
         <v>26.31</v>
@@ -5612,7 +5507,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>17</v>
@@ -5629,8 +5524,8 @@
       <c r="F95" s="2">
         <v>2934</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>54</v>
+      <c r="G95" s="2">
+        <v>115</v>
       </c>
       <c r="H95" s="2">
         <v>24.24</v>
@@ -5660,7 +5555,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>17</v>

--- a/all season cleaned data/batsamset_ipl.xlsx
+++ b/all season cleaned data/batsamset_ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/all season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107172EF-E153-8B41-B686-31E8A793C2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52605E6-F9EE-6C42-A1FF-524675D911D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>50's</t>
   </si>
   <si>
-    <t>0's</t>
-  </si>
-  <si>
     <t>4s</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>BR Sharath</t>
+  </si>
+  <si>
+    <t>Zeros</t>
   </si>
 </sst>
 </file>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -871,24 +871,24 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>9</v>
@@ -930,15 +930,15 @@
         <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -980,15 +980,15 @@
         <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1030,15 +1030,15 @@
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1080,15 +1080,15 @@
         <v>1</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -1130,15 +1130,15 @@
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1180,15 +1180,15 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1230,15 +1230,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -1280,15 +1280,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1330,15 +1330,15 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>21</v>
@@ -1380,15 +1380,15 @@
         <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -1430,15 +1430,15 @@
         <v>15</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1480,15 +1480,15 @@
         <v>18</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>28</v>
@@ -1530,15 +1530,15 @@
         <v>16</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -1580,15 +1580,15 @@
         <v>19</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -1630,15 +1630,15 @@
         <v>8</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C17" s="2">
         <v>29</v>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2">
         <v>11</v>
@@ -1728,15 +1728,15 @@
         <v>4</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -1778,15 +1778,15 @@
         <v>0</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
         <v>40</v>
@@ -1924,15 +1924,15 @@
         <v>45</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2">
         <v>18</v>
@@ -1974,15 +1974,15 @@
         <v>26</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2">
         <v>27</v>
@@ -2024,15 +2024,15 @@
         <v>28</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2">
         <v>19</v>
@@ -2074,15 +2074,15 @@
         <v>10</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
@@ -2124,15 +2124,15 @@
         <v>16</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C27" s="2">
         <v>23</v>
@@ -2174,15 +2174,15 @@
         <v>30</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2">
         <v>13</v>
@@ -2224,15 +2224,15 @@
         <v>15</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -2322,15 +2322,15 @@
         <v>0</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
@@ -2372,15 +2372,15 @@
         <v>0</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2422,15 +2422,15 @@
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2">
         <v>44</v>
@@ -2472,15 +2472,15 @@
         <v>35</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2">
         <v>27</v>
@@ -2522,15 +2522,15 @@
         <v>54</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2">
         <v>24</v>
@@ -2572,15 +2572,15 @@
         <v>14</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
@@ -2622,15 +2622,15 @@
         <v>3</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -2672,15 +2672,15 @@
         <v>6</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2">
         <v>26</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C39" s="2">
         <v>10</v>
@@ -2770,15 +2770,15 @@
         <v>8</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -2820,15 +2820,15 @@
         <v>0</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
@@ -2870,15 +2870,15 @@
         <v>0</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C42" s="2">
         <v>66</v>
@@ -2920,15 +2920,15 @@
         <v>91</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
         <v>64</v>
@@ -2970,15 +2970,15 @@
         <v>42</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C44" s="2">
         <v>23</v>
@@ -3020,15 +3020,15 @@
         <v>9</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="2">
         <v>13</v>
@@ -3070,15 +3070,15 @@
         <v>2</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -3120,15 +3120,15 @@
         <v>1</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
@@ -3170,15 +3170,15 @@
         <v>1</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
@@ -3220,15 +3220,15 @@
         <v>1</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C49" s="2">
         <v>76</v>
@@ -3270,15 +3270,15 @@
         <v>127</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
         <v>50</v>
@@ -3320,15 +3320,15 @@
         <v>69</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2">
         <v>72</v>
@@ -3370,15 +3370,15 @@
         <v>82</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2">
         <v>34</v>
@@ -3420,15 +3420,15 @@
         <v>41</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2">
         <v>6</v>
@@ -3470,15 +3470,15 @@
         <v>2</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -3520,15 +3520,15 @@
         <v>8</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -3570,15 +3570,15 @@
         <v>0</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C56" s="2">
         <v>103</v>
@@ -3620,15 +3620,15 @@
         <v>95</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2">
         <v>79</v>
@@ -3670,15 +3670,15 @@
         <v>61</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2">
         <v>35</v>
@@ -3720,15 +3720,15 @@
         <v>64</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2">
         <v>46</v>
@@ -3770,15 +3770,15 @@
         <v>46</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
@@ -3820,15 +3820,15 @@
         <v>0</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="2">
         <v>11</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C63" s="2">
         <v>27</v>
@@ -3966,15 +3966,15 @@
         <v>36</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C64" s="2">
         <v>95</v>
@@ -4016,15 +4016,15 @@
         <v>84</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2">
         <v>6</v>
@@ -4066,15 +4066,15 @@
         <v>3</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C66" s="2">
         <v>45</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2">
         <v>21</v>
@@ -4167,10 +4167,10 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C68" s="2">
         <v>107</v>
@@ -4212,15 +4212,15 @@
         <v>161</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" s="2">
         <v>111</v>
@@ -4262,15 +4262,15 @@
         <v>154</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2">
         <v>105</v>
@@ -4312,15 +4312,15 @@
         <v>119</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" s="2">
         <v>25</v>
@@ -4362,15 +4362,15 @@
         <v>40</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C72" s="2">
         <v>30</v>
@@ -4412,15 +4412,15 @@
         <v>20</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C73" s="2">
         <v>116</v>
@@ -4462,15 +4462,15 @@
         <v>113</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2">
         <v>79</v>
@@ -4512,15 +4512,15 @@
         <v>64</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="2">
         <v>18</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2">
         <v>22</v>
@@ -4610,15 +4610,15 @@
         <v>25</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C77" s="2">
         <v>132</v>
@@ -4660,15 +4660,15 @@
         <v>187</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78" s="2">
         <v>168</v>
@@ -4710,15 +4710,15 @@
         <v>206</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2">
         <v>107</v>
@@ -4760,15 +4760,15 @@
         <v>123</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C80" s="2">
         <v>56</v>
@@ -4810,15 +4810,15 @@
         <v>43</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C81" s="2">
         <v>145</v>
@@ -4860,15 +4860,15 @@
         <v>166</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="2">
         <v>150</v>
@@ -4910,15 +4910,15 @@
         <v>130</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2">
         <v>130</v>
@@ -4960,15 +4960,15 @@
         <v>134</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C84" s="2">
         <v>127</v>
@@ -5010,15 +5010,15 @@
         <v>98</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2">
         <v>15</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2">
         <v>9</v>
@@ -5111,10 +5111,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C87" s="2">
         <v>184</v>
@@ -5156,15 +5156,15 @@
         <v>236</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C88" s="2">
         <v>252</v>
@@ -5206,15 +5206,15 @@
         <v>272</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="2">
         <v>257</v>
@@ -5256,15 +5256,15 @@
         <v>280</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="2">
         <v>264</v>
@@ -5306,15 +5306,15 @@
         <v>252</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="2">
         <v>185</v>
@@ -5356,15 +5356,15 @@
         <v>103</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2">
         <v>171</v>
@@ -5406,15 +5406,15 @@
         <v>110</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="2">
         <v>222</v>
@@ -5459,10 +5459,10 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="2">
         <v>257</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="2">
         <v>170</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="2">
         <v>162</v>

--- a/all season cleaned data/batsamset_ipl.xlsx
+++ b/all season cleaned data/batsamset_ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/all season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52605E6-F9EE-6C42-A1FF-524675D911D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844A37F-1CF1-D84F-A102-DE0A29235DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,7 +824,7 @@
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
